--- a/sessions/recordingSession1_7-19.xlsx
+++ b/sessions/recordingSession1_7-19.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\escob\Desktop\PhD\BDs\Protesis-IA\sessions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150636BE-0492-4096-9CA9-6A4C0740DDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7915B08-25B3-43BB-A2B9-9ADB914186CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="24-7" sheetId="3" r:id="rId1"/>
+    <sheet name="19-7" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Recording Session 1</t>
   </si>
@@ -49,6 +50,21 @@
   </si>
   <si>
     <t>July 19 2024</t>
+  </si>
+  <si>
+    <t>July 24 2024</t>
+  </si>
+  <si>
+    <t>Recording Session 2</t>
+  </si>
+  <si>
+    <t>Sentimiento</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Frecuencia de Ejercicio</t>
   </si>
 </sst>
 </file>
@@ -84,8 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,11 +384,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058AD542-6808-46EE-ADF2-4344F9550C6B}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
